--- a/solutions.xlsx
+++ b/solutions.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="21075" windowHeight="9270"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="owssvr" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="owssvr" localSheetId="0" hidden="1">owssvr!$A$1:$F$28</definedName>
+    <definedName name="owssvr" localSheetId="0" hidden="1">owssvr!$A$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -18,14 +18,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\bfarhoudi\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\63ETHHNT\owssvr.iqy" keepAlive="1" name="owssvr" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
+  <connection id="1" odcFile="C:\Users\bfarhoudi\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\B00GSN8I\owssvr.iqy" keepAlive="1" name="owssvr" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;{262F29D6-06D1-4479-9181-DD9D39FECEA3}&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;{70A9B3E2-E842-44D2-BF10-55A091045E95}&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://share.ahsnet.ca/teams/kmqa/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;/teams/kmqa/Lists/Software&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="71">
   <si>
     <t>Software</t>
   </si>
@@ -51,7 +51,7 @@
     <t>_Starting Over;#32;#Brainstorming;#33;#Collaboration;#34;#Communication;#42;#Coordination;#43;#Decision Making;#36;#Evaluation;#44;#Exchange;#45;#Feedback;#35;#Learning;#37;#Referencing;#38;#Research;#39;#Simulation;#40;#Sysnthesis;#46;#Videography;#41</t>
   </si>
   <si>
-    <t>_Starting Over;#22;#Activity Coordination;#53;#Blog;#30;#Change Management;#54;#Citation and Bibliographies;#40;#Course Coordination;#55;#Curriculum;#34;#Discussion Forum;#29;#Document Collaboration;#25;#eBook;#35;#Evaluation Plan;#56;#HTA;#58;#Ideation;#26;#InfoGraphic;#47;#Job Aid;#36;#Knowledge Map;#24;#Knowledge Repositories;#43;#Lessons Learned Repository;#31;#Literature Review;#44;#Memes and Vemes;#50;#New Letters;#49;#Online Module;#37;#Posters;#48;#Presentations;#38;#Print Screens;#46;#Project Coordination;#52;#Qualitative and Quantitative Analysis;#42;#Reporting Tool;#33;#Requests Coordination;#51;#ROI;#57;#Subject Matter Expertise;#27;#Survey;#28;#Toolbox: Methods, Methodologies, Tools;#32;#Training Manual;#39;#Video;#45</t>
+    <t>_Starting Over;#22;#Activity Coordination;#53;#Blog;#30;#Change Management;#54;#Citation and Bibliographies;#40;#Course Coordination;#55;#Curriculum;#34;#Discussion Forum;#29;#Document Collaboration;#25;#eBook;#35;#Evaluation Plan;#56;#HTA;#58;#Ideation;#26;#InfoGraphic;#47;#Job Aid;#36;#Knowledge Map;#24;#Knowledge Repositories;#43;#Lessons Learned Repository;#31;#Literature Review;#44;#Memes and Vemes;#50;#Newsletter;#49;#Online Module;#37;#Posters;#48;#Presentations;#38;#Print Screens;#46;#Project Coordination;#52;#Qualitative and Quantitative Analysis;#42;#Reporting Tool;#33;#Requests Coordination;#51;#ROI;#57;#Subject Matter Expertise;#27;#Survey;#28;#Toolbox: Methods, Methodologies, Tools;#32;#Training Manual;#39;#Video;#45</t>
   </si>
   <si>
     <t>teams/kmqa/Lists/Software</t>
@@ -69,13 +69,22 @@
     <t>_Starting Over;#22;#Video;#45</t>
   </si>
   <si>
-    <t>Adobe Acrobat 9 Pro</t>
+    <t>Adobe Acrobat Pro</t>
   </si>
   <si>
     <t>_Starting Over;#32;#Learning;#37</t>
   </si>
   <si>
-    <t>_Starting Over;#22;#eBook;#35</t>
+    <t>_Starting Over;#22;#eBook;#35;#Information Sheet;#60</t>
+  </si>
+  <si>
+    <t>Adobe Audition</t>
+  </si>
+  <si>
+    <t>_Starting Over;#32;#Audio Recording;#47</t>
+  </si>
+  <si>
+    <t>_Starting Over;#22;#Audio;#61</t>
   </si>
   <si>
     <t>Adobe eLearning</t>
@@ -84,6 +93,12 @@
     <t>_Starting Over;#22;#Online Module;#37;#Training Manual;#39</t>
   </si>
   <si>
+    <t>Adobe Lifecycle</t>
+  </si>
+  <si>
+    <t>_Starting Over;#22;#Information Sheet;#60</t>
+  </si>
+  <si>
     <t>Camtasia</t>
   </si>
   <si>
@@ -99,6 +114,15 @@
     <t>Comapping</t>
   </si>
   <si>
+    <t>Designer ES2</t>
+  </si>
+  <si>
+    <t>Go Animate</t>
+  </si>
+  <si>
+    <t>_Starting Over;#32;#Videography;#41</t>
+  </si>
+  <si>
     <t>KRS Lib Guides</t>
   </si>
   <si>
@@ -150,6 +174,9 @@
     <t>_Starting Over;#22;#Presentations;#38</t>
   </si>
   <si>
+    <t>Microsoft Publisher</t>
+  </si>
+  <si>
     <t>Microsoft Word</t>
   </si>
   <si>
@@ -186,7 +213,7 @@
     <t>Collaboration;#34;#Feedback;#35;#_Starting Over;#32;#Research;#39;#Coordination;#43</t>
   </si>
   <si>
-    <t>Document Collaboration;#25;#Subject Matter Expertise;#27;#Discussion Forum;#29;#Blog;#30;#Lessons Learned Repository;#31;#_Starting Over;#22;#Toolbox: Methods, Methodologies, Tools;#32;#Reporting Tool;#33;#Knowledge Repositories;#43;#Requests Coordination;#51;#Project Coordination;#52;#Activity Coordination;#53;#Change Management;#54</t>
+    <t>Document Collaboration;#25;#Subject Matter Expertise;#27;#Discussion Forum;#29;#Blog;#30;#Lessons Learned Repository;#31;#_Starting Over;#22;#Toolbox: Methods, Methodologies, Tools;#32;#Reporting Tool;#33;#Knowledge Repositories;#43;#Requests Coordination;#51;#Project Coordination;#52;#Activity Coordination;#53;#Change Management;#54;#Environmental Scan;#59</t>
   </si>
   <si>
     <t>Snagit</t>
@@ -196,9 +223,6 @@
   </si>
   <si>
     <t>Soney Vegas</t>
-  </si>
-  <si>
-    <t>_Starting Over;#32;#Videography;#41</t>
   </si>
   <si>
     <t>Statit</t>
@@ -785,8 +809,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr" displayName="Table_owssvr" ref="A1:F28" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr" displayName="Table_owssvr" ref="A1:F33" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F33"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="Title" name="Software" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" uniqueName="Related_x005f_x0020_Business_x005f_x0020_Nee" name="Related Business Need" queryTableFieldId="2"/>
@@ -1086,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1175,10 +1199,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1189,13 +1213,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -1206,13 +1230,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -1223,13 +1247,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -1240,13 +1264,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -1257,13 +1281,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -1274,13 +1298,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -1291,13 +1315,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -1308,13 +1332,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -1325,13 +1349,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -1342,13 +1366,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
@@ -1359,13 +1383,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -1379,10 +1403,10 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
@@ -1393,13 +1417,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
@@ -1410,13 +1434,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>10</v>
@@ -1427,13 +1451,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
@@ -1444,13 +1468,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>10</v>
@@ -1461,13 +1485,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
@@ -1478,13 +1502,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>10</v>
@@ -1495,13 +1519,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
@@ -1512,13 +1536,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
@@ -1532,10 +1556,10 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
@@ -1549,10 +1573,10 @@
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
@@ -1563,18 +1587,103 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/solutions.xlsx
+++ b/solutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="owssvr" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\bfarhoudi\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\B00GSN8I\owssvr.iqy" keepAlive="1" name="owssvr" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
+  <connection id="1" odcFile="C:\Users\bfarhoudi\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\TXQF9HDM\owssvr.iqy" keepAlive="1" name="owssvr" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;{262F29D6-06D1-4479-9181-DD9D39FECEA3}&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;{70A9B3E2-E842-44D2-BF10-55A091045E95}&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://share.ahsnet.ca/teams/kmqa/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;/teams/kmqa/Lists/Software&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
@@ -60,7 +60,7 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Adobe</t>
+    <t>Adobe - Captivate</t>
   </si>
   <si>
     <t>_Starting Over;#32;#Simulation;#40</t>

--- a/solutions.xlsx
+++ b/solutions.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="7740"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="owssvr" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="owssvr" localSheetId="0" hidden="1">owssvr!$A$1:$F$33</definedName>
+    <definedName name="owssvr__4" localSheetId="0" hidden="1">owssvr!$A$1:$F$32</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -18,14 +18,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\bfarhoudi\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\TXQF9HDM\owssvr.iqy" keepAlive="1" name="owssvr" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
+  <connection id="1" odcFile="C:\Users\bfarhoudi\Downloads\owssvr (4).iqy" keepAlive="1" name="owssvr (4)" type="5" refreshedVersion="4" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;{262F29D6-06D1-4479-9181-DD9D39FECEA3}&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;{70A9B3E2-E842-44D2-BF10-55A091045E95}&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://share.ahsnet.ca/teams/kmqa/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;/teams/kmqa/Lists/Software&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
   <si>
     <t>Software</t>
   </si>
@@ -63,43 +63,43 @@
     <t>Adobe - Captivate</t>
   </si>
   <si>
+    <t>_Starting Over;#32;#Simulation;#40;#Learning;#37</t>
+  </si>
+  <si>
+    <t>_Starting Over;#22;#Video;#45;#Online Module;#37;#Training Manual;#39</t>
+  </si>
+  <si>
+    <t>Adobe Acrobat Pro</t>
+  </si>
+  <si>
+    <t>_Starting Over;#32;#Learning;#37</t>
+  </si>
+  <si>
+    <t>_Starting Over;#22;#eBook;#35;#Information Sheet;#60</t>
+  </si>
+  <si>
+    <t>Adobe Audition</t>
+  </si>
+  <si>
+    <t>_Starting Over;#32;#Audio Recording;#47</t>
+  </si>
+  <si>
+    <t>_Starting Over;#22;#Audio;#61</t>
+  </si>
+  <si>
+    <t>Adobe Lifecycle</t>
+  </si>
+  <si>
+    <t>_Starting Over;#22;#Information Sheet;#60</t>
+  </si>
+  <si>
+    <t>Camtasia</t>
+  </si>
+  <si>
     <t>_Starting Over;#32;#Simulation;#40</t>
   </si>
   <si>
     <t>_Starting Over;#22;#Video;#45</t>
-  </si>
-  <si>
-    <t>Adobe Acrobat Pro</t>
-  </si>
-  <si>
-    <t>_Starting Over;#32;#Learning;#37</t>
-  </si>
-  <si>
-    <t>_Starting Over;#22;#eBook;#35;#Information Sheet;#60</t>
-  </si>
-  <si>
-    <t>Adobe Audition</t>
-  </si>
-  <si>
-    <t>_Starting Over;#32;#Audio Recording;#47</t>
-  </si>
-  <si>
-    <t>_Starting Over;#22;#Audio;#61</t>
-  </si>
-  <si>
-    <t>Adobe eLearning</t>
-  </si>
-  <si>
-    <t>_Starting Over;#22;#Online Module;#37;#Training Manual;#39</t>
-  </si>
-  <si>
-    <t>Adobe Lifecycle</t>
-  </si>
-  <si>
-    <t>_Starting Over;#22;#Information Sheet;#60</t>
-  </si>
-  <si>
-    <t>Camtasia</t>
   </si>
   <si>
     <t>Cmap</t>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="owssvr" backgroundRefresh="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="owssvr (4)" backgroundRefresh="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="Software" tableColumnId="1"/>
@@ -809,8 +809,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr" displayName="Table_owssvr" ref="A1:F33" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_owssvr__4" displayName="Table_owssvr__4" ref="A1:F32" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F32"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="Title" name="Software" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" uniqueName="Related_x005f_x0020_Business_x005f_x0020_Nee" name="Related Business Need" queryTableFieldId="2"/>
@@ -1110,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1233,10 +1233,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -1247,13 +1247,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1281,13 +1281,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -1298,13 +1298,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -1315,13 +1315,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -1332,13 +1332,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -1349,13 +1349,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -1366,13 +1366,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
@@ -1383,13 +1383,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -1400,13 +1400,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
@@ -1417,13 +1417,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
@@ -1434,13 +1434,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>10</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
@@ -1468,13 +1468,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>10</v>
@@ -1485,13 +1485,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
@@ -1502,13 +1502,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>10</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
@@ -1570,13 +1570,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
@@ -1587,13 +1587,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>10</v>
@@ -1621,13 +1621,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -1638,13 +1638,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>10</v>
@@ -1655,35 +1655,18 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
